--- a/python/two/night2 Error t1=6 t2=3 δ=0.95.xlsx
+++ b/python/two/night2 Error t1=6 t2=3 δ=0.95.xlsx
@@ -473,13 +473,13 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>9.71e-06</v>
+        <v>1.23e-05</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>10.6</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0354</v>
+        <v>75.90000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -492,16 +492,16 @@
         <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>5.6</v>
+        <v>5.68</v>
       </c>
       <c r="D3" t="n">
-        <v>86.5</v>
+        <v>89.5</v>
       </c>
       <c r="E3" t="n">
-        <v>3.53</v>
+        <v>5.99</v>
       </c>
       <c r="F3" t="n">
-        <v>17.6</v>
+        <v>99.7</v>
       </c>
     </row>
     <row r="4">
@@ -517,13 +517,13 @@
         <v>0.0001</v>
       </c>
       <c r="D4" t="n">
-        <v>2.11e-06</v>
+        <v>2.67e-06</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0001</v>
+        <v>9.98e-05</v>
       </c>
       <c r="F4" t="n">
-        <v>0.131</v>
+        <v>-0.176</v>
       </c>
     </row>
     <row r="5">
@@ -536,16 +536,16 @@
         <v>0.95</v>
       </c>
       <c r="C5" t="n">
-        <v>0.902</v>
+        <v>0.894</v>
       </c>
       <c r="D5" t="n">
-        <v>-5.01</v>
+        <v>-5.9</v>
       </c>
       <c r="E5" t="n">
-        <v>0.826</v>
+        <v>0.000198</v>
       </c>
       <c r="F5" t="n">
-        <v>-13.1</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="6">
@@ -567,7 +567,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.000109</v>
+        <v>-1.11e-14</v>
       </c>
     </row>
     <row r="7">
@@ -580,7 +580,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>2.91e-08</v>
+        <v>4.63e-08</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4310</v>
+        <v>2950</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1.49e-10</v>
+        <v>2.37e-10</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>22.1</v>
+        <v>15.1</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
